--- a/Documentos/avances/Historias de usuarios.xlsx
+++ b/Documentos/avances/Historias de usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ISIL REDES Y COMUNICACIONES\Proyecto tecnologico\Proyecto-Tecnologico-2021-01-\Documentos\avances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E13BCE9-4B53-483A-B3B9-A352B6F87832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1DBD36-7D60-40D7-B774-A5875AEDC3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="138">
   <si>
     <t>Desarrollo ágil: Equipo 1 proyecto : Blondy's Siacca</t>
   </si>
@@ -231,9 +231,6 @@
     <t>Al tener los productos de consumo interno y de venta separados, tenemor un mayor orden en el proceso de compra para la reposision de stock.</t>
   </si>
   <si>
-    <t>Blondys-005</t>
-  </si>
-  <si>
     <t>Necesito tener visibilidad de los cuartos ocupados y quien los ocupa.</t>
   </si>
   <si>
@@ -309,17 +306,152 @@
     <t xml:space="preserve">Al dar clic  en el recuadro redirecione de manera adecuada </t>
   </si>
   <si>
-    <t>RELEASE 1</t>
+    <t>Grado de importancia</t>
   </si>
   <si>
-    <t>Grado de importancia</t>
+    <t>Phone, Email, Website, Address</t>
+  </si>
+  <si>
+    <t>Muy importante</t>
+  </si>
+  <si>
+    <t>Importancia alta</t>
+  </si>
+  <si>
+    <t>Importancia media</t>
+  </si>
+  <si>
+    <t>Baja importancia</t>
+  </si>
+  <si>
+    <t>Mariella Pilar Lamonja Velasquez</t>
+  </si>
+  <si>
+    <t>mallelam08@gmail.com</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>¿Qué es importante para las partes interesadas?</t>
+  </si>
+  <si>
+    <t>¿Cómo podría contribuir la parte interesada al proyecto?</t>
+  </si>
+  <si>
+    <t>¿Cómo podría el interesado bloquear el proyecto?</t>
+  </si>
+  <si>
+    <t>Estrategia para involucrar a las partes interesadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre Stakeholder </t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>Influencia</t>
+  </si>
+  <si>
+    <t>¿Cuánto les afecta el proyecto?(Low, Medium, High)</t>
+  </si>
+  <si>
+    <t>¿Cuánta influencia tienen sobre el proyecto? (Low, Medium, High)</t>
+  </si>
+  <si>
+    <t>abel_dl@yahoo.es</t>
+  </si>
+  <si>
+    <t>Tener claridad sobre la satisfación de los clientes</t>
+  </si>
+  <si>
+    <t>Poder tener claridad sobre los clientes que ocupan habitación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicando los procesos de negocio del día a día </t>
+  </si>
+  <si>
+    <t>Explicando la gestión con varias plataformas</t>
+  </si>
+  <si>
+    <t>Scrum Team</t>
+  </si>
+  <si>
+    <t>No brindando información</t>
+  </si>
+  <si>
+    <t>No retroalimentando el trabajo</t>
+  </si>
+  <si>
+    <t>No trabajando de manera adecuada</t>
+  </si>
+  <si>
+    <t>Desarrollar un buen proyecto</t>
+  </si>
+  <si>
+    <t>Mediante entrevistas</t>
+  </si>
+  <si>
+    <t>Demostración de sotfware</t>
+  </si>
+  <si>
+    <t>Dailys</t>
+  </si>
+  <si>
+    <t>trabajando conforme a lo pactado</t>
+  </si>
+  <si>
+    <t>Necesito poder crear usuarios</t>
+  </si>
+  <si>
+    <t>PRESENTACIÓN 1</t>
+  </si>
+  <si>
+    <t>Para poder tener un control sobre que tipo de acciones que pueden hacer o no en el sistema</t>
+  </si>
+  <si>
+    <t>Los usuarios creados  deben poder cumplir unicamente con los roles  asignados</t>
+  </si>
+  <si>
+    <t>Al crear al usuario debe solo poder cumplir , con los permisos que se le asigna</t>
+  </si>
+  <si>
+    <t>Por temas de crecimiento se planea contratar un personal solo para atender y debe contar con un usuario</t>
+  </si>
+  <si>
+    <t>El administrador pueda crear usuarios y otorgarles los permisos que necesita</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Gerente general</t>
+  </si>
+  <si>
+    <t>Encargado de marketing</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abel Davila </t>
+  </si>
+  <si>
+    <t>Blondys-007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,8 +482,42 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,8 +572,44 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -664,11 +866,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -749,55 +1126,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -813,14 +1141,152 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1036,9 +1502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1046,14 +1512,16 @@
     <col min="1" max="1" width="1.453125" customWidth="1"/>
     <col min="2" max="2" width="13.6328125" style="27" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="4" max="4" width="26" style="27" customWidth="1"/>
+    <col min="5" max="5" width="105" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" style="27" customWidth="1"/>
     <col min="7" max="7" width="31.54296875" style="27" customWidth="1"/>
     <col min="8" max="8" width="35.6328125" style="27" customWidth="1"/>
     <col min="9" max="9" width="41.90625" style="27" customWidth="1"/>
     <col min="10" max="10" width="38.36328125" style="27" customWidth="1"/>
-    <col min="11" max="26" width="10" customWidth="1"/>
+    <col min="11" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+    <col min="16" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36" customHeight="1">
@@ -1100,8 +1568,12 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="N2" s="63">
+        <v>1</v>
+      </c>
+      <c r="O2" s="64" t="s">
+        <v>93</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1128,8 +1600,12 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N3" s="65">
+        <v>2</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>94</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1145,23 +1621,27 @@
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="53" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="67">
+        <v>3</v>
+      </c>
+      <c r="O4" s="68" t="s">
+        <v>95</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1203,13 +1683,17 @@
       <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="51" t="s">
-        <v>93</v>
+      <c r="K5" s="30" t="s">
+        <v>91</v>
       </c>
-      <c r="L5" s="52"/>
+      <c r="L5" s="31"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="69">
+        <v>4</v>
+      </c>
+      <c r="O5" s="70" t="s">
+        <v>96</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1224,16 +1708,16 @@
     </row>
     <row r="6" spans="1:26" ht="130.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="6">
@@ -1251,10 +1735,10 @@
       <c r="J6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="34">
         <v>1</v>
       </c>
-      <c r="L6" s="55"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1272,29 +1756,29 @@
     </row>
     <row r="7" spans="1:26" ht="28.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="43">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="35">
         <v>2</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="34">
         <v>3</v>
       </c>
-      <c r="L7" s="55"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1312,17 +1796,17 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1340,17 +1824,17 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1377,8 +1861,8 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1396,37 +1880,37 @@
     </row>
     <row r="11" spans="1:26" ht="28.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="35">
         <v>1</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="34">
         <v>2</v>
       </c>
-      <c r="L11" s="55"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1444,17 +1928,17 @@
     </row>
     <row r="12" spans="1:26" ht="45" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1472,29 +1956,29 @@
     </row>
     <row r="13" spans="1:26" ht="28.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="43">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="34">
         <v>1</v>
       </c>
-      <c r="L13" s="55"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1512,17 +1996,17 @@
     </row>
     <row r="14" spans="1:26" ht="42.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1549,8 +2033,8 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1568,7 +2052,7 @@
     </row>
     <row r="16" spans="1:26" ht="147.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1595,10 +2079,10 @@
       <c r="J16" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="34">
         <v>3</v>
       </c>
-      <c r="L16" s="55"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1616,7 +2100,7 @@
     </row>
     <row r="17" spans="1:26" ht="92.25" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="42"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
@@ -1641,10 +2125,10 @@
       <c r="J17" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="34">
         <v>2</v>
       </c>
-      <c r="L17" s="55"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1671,8 +2155,8 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1690,16 +2174,16 @@
     </row>
     <row r="19" spans="1:26" ht="58.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="35" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="14">
@@ -1717,10 +2201,10 @@
       <c r="J19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="55">
+      <c r="K19" s="34">
         <v>3</v>
       </c>
-      <c r="L19" s="55"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1738,10 +2222,10 @@
     </row>
     <row r="20" spans="1:26" ht="80.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="14">
         <v>2</v>
       </c>
@@ -1757,8 +2241,8 @@
       <c r="J20" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1776,10 +2260,10 @@
     </row>
     <row r="21" spans="1:26" ht="75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="14">
         <v>3</v>
       </c>
@@ -1795,8 +2279,8 @@
       <c r="J21" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1823,8 +2307,8 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1842,37 +2326,37 @@
     </row>
     <row r="23" spans="1:26" ht="78.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="43" t="s">
+      <c r="E23" s="35" t="s">
         <v>67</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>68</v>
       </c>
       <c r="F23" s="14">
         <v>1</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="55">
+      <c r="K23" s="34">
         <v>3</v>
       </c>
-      <c r="L23" s="55"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1890,29 +2374,29 @@
     </row>
     <row r="24" spans="1:26" ht="60.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="6">
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="55">
+      <c r="K24" s="34">
         <v>2</v>
       </c>
-      <c r="L24" s="55"/>
+      <c r="L24" s="34"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1930,29 +2414,29 @@
     </row>
     <row r="25" spans="1:26" ht="66.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="6">
         <v>3</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="J25" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="55">
+      <c r="K25" s="34">
         <v>2</v>
       </c>
-      <c r="L25" s="55"/>
+      <c r="L25" s="34"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1998,37 +2482,37 @@
     </row>
     <row r="27" spans="1:26" ht="65.25" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="43" t="s">
+      <c r="E27" s="35" t="s">
         <v>82</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>83</v>
       </c>
       <c r="F27" s="6">
         <v>1</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="J27" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="K27" s="55">
+      <c r="K27" s="34">
         <v>4</v>
       </c>
-      <c r="L27" s="55"/>
+      <c r="L27" s="34"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2046,29 +2530,29 @@
     </row>
     <row r="28" spans="1:26" ht="42.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="6">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="7">
         <v>2</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="K28" s="55">
+      <c r="K28" s="34">
         <v>4</v>
       </c>
-      <c r="L28" s="55"/>
+      <c r="L28" s="34"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -2095,8 +2579,8 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="55"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2112,119 +2596,81 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="38" t="s">
-        <v>92</v>
+    <row r="30" spans="1:26" s="79" customFormat="1" ht="15" customHeight="1">
+      <c r="A30"/>
+      <c r="B30" s="91" t="s">
+        <v>137</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
+      <c r="C30" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="77">
+        <v>2</v>
+      </c>
+      <c r="G30" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="83">
+        <v>2</v>
+      </c>
+      <c r="L30" s="84"/>
+    </row>
+    <row r="31" spans="1:26" s="79" customFormat="1" ht="15" customHeight="1">
+      <c r="A31"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="86"/>
+    </row>
+    <row r="32" spans="1:26" s="79" customFormat="1" ht="15" customHeight="1">
+      <c r="A32"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="1:26" s="79" customFormat="1" ht="15" customHeight="1">
+      <c r="A33"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="88"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1">
       <c r="A34" s="1"/>
@@ -2237,8 +2683,8 @@
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="35"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="48"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2256,17 +2702,19 @@
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="B35" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2284,17 +2732,17 @@
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2312,17 +2760,17 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2340,17 +2788,17 @@
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -2396,10 +2844,10 @@
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="20"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -2424,10 +2872,10 @@
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -2452,10 +2900,10 @@
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="20"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -2480,10 +2928,10 @@
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="20"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -2536,10 +2984,10 @@
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="26"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -2564,10 +3012,10 @@
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="26"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -2592,10 +3040,10 @@
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="26"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -2620,10 +3068,10 @@
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="26"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -2676,10 +3124,10 @@
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
       <c r="F50" s="26"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -2704,10 +3152,10 @@
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="26"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -2732,10 +3180,10 @@
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="26"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -2760,10 +3208,10 @@
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="26"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -2816,10 +3264,10 @@
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
       <c r="F55" s="26"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -2844,10 +3292,10 @@
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
       <c r="F56" s="26"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -2872,10 +3320,10 @@
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
       <c r="F57" s="26"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -2900,10 +3348,10 @@
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -2956,10 +3404,10 @@
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
       <c r="F60" s="26"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
@@ -2984,10 +3432,10 @@
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
       <c r="F61" s="26"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
@@ -3012,10 +3460,10 @@
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
       <c r="F62" s="26"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
@@ -3040,10 +3488,10 @@
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="26"/>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
@@ -3096,10 +3544,10 @@
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
       <c r="F65" s="26"/>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
@@ -3124,10 +3572,10 @@
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="26"/>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
@@ -3152,10 +3600,10 @@
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="26"/>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
@@ -3180,10 +3628,10 @@
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
       <c r="F68" s="26"/>
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
@@ -3236,10 +3684,10 @@
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
       <c r="F70" s="26"/>
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
@@ -3264,10 +3712,10 @@
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="26"/>
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
@@ -3292,10 +3740,10 @@
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
       <c r="F72" s="26"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
@@ -3320,10 +3768,10 @@
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
       <c r="F73" s="26"/>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
@@ -3376,10 +3824,10 @@
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
       <c r="F75" s="26"/>
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
@@ -3404,10 +3852,10 @@
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
       <c r="F76" s="26"/>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
@@ -3432,10 +3880,10 @@
     </row>
     <row r="77" spans="1:26" ht="14.25" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
       <c r="F77" s="26"/>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
@@ -3460,10 +3908,10 @@
     </row>
     <row r="78" spans="1:26" ht="14.25" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
       <c r="F78" s="26"/>
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
@@ -29134,20 +29582,81 @@
       <c r="Z994" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F7:F9"/>
+  <mergeCells count="103">
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="K30:L33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K7:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B35:L38"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="F13:F14"/>
@@ -29164,74 +29673,19 @@
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K7:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B30:L33"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -29240,17 +29694,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85C4751-40AE-40C2-8B4C-8DC62F391F83}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="11.54296875" style="27"/>
+    <col min="1" max="1" width="11.54296875" style="27"/>
+    <col min="2" max="2" width="28.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.36328125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="21" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="52.6328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.54296875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" style="27" customWidth="1"/>
+    <col min="11" max="16384" width="11.54296875" style="27"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:10" ht="14.5" customHeight="1">
+      <c r="B1" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="78" customHeight="1">
+      <c r="B2" s="75"/>
+      <c r="C2" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="72"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{1E3C2CD8-7F93-468E-8F4B-90BADA69051D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documentos/avances/Historias de usuarios.xlsx
+++ b/Documentos/avances/Historias de usuarios.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="158">
   <si>
     <t>Desarrollo ágil: Equipo 1 proyecto : Blondy's Siacca</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Esfuerzo estimado en horas.</t>
   </si>
   <si>
-    <t>Numero de sprint</t>
+    <t>Número de sprint</t>
   </si>
   <si>
     <t>Baja importancia</t>
@@ -82,22 +82,22 @@
     <t>Como encargado de operaciones.</t>
   </si>
   <si>
-    <t>Necesito que en el sistema se pueda registrar a los huespedes.</t>
+    <t>Necesito que en el sistema se puedan registrar a los huéspedes.</t>
   </si>
   <si>
-    <t>Con la finalidad de  tener una bitacora de ingreso y salida de los huespedes.</t>
+    <t>Con la finalidad de  tener una bitácora de ingreso y salida de los huéspedes.</t>
   </si>
   <si>
-    <t>Debe permitir registro de los huespedes con los siguientos campos como minimo (Nombre, Apellido, Fecha de nacimiento, Mayor de edad, Nacionalidad, Tipo de documento, Documento, Habitació, Fecha de ingreso, Salida, Hora de entrada, Hora de salida, Plataforma)</t>
+    <t>Debe permitir registro de los huéspedes con los siguientes campos como mínimo (Nombre, Apellido, Fecha de nacimiento, Mayor de edad, Nacionalidad, Tipo de documento, Documento, Habitació, Fecha de ingreso, Salida, Hora de entrada, Hora de salida, Plataforma)</t>
   </si>
   <si>
-    <t>En caso que no se ingresen todos los campos solicitados  , no permita registrar al cliente en el sistema y mande un mensaje mostrando que campos faltan y colocandolos en rojo.</t>
+    <t>En caso que no se ingresen todos los campos solicitados  , no permita registrar al cliente en el sistema y mande un mensaje mostrando que campos faltan y colocándolos en rojo.</t>
   </si>
   <si>
     <t>Una vez se el registro es exitoso, debe aparece un mensaje emergente confirmando su registro.</t>
   </si>
   <si>
-    <t>Que el sistema permita registrar al cliente según los campos acordados y de no ser llenados de manera adecuada no permita el registro, resaltando las casillas con bordeado rojo, debe mostrar a los últimos 15 huespedes.</t>
+    <t>Que el sistema permita registrar al cliente según los campos acordados y de no ser llenados de manera adecuada no permita el registro, resaltando las casillas con bordado rojo, debe mostrar a los últimos 15 huéspedes.</t>
   </si>
   <si>
     <t>15 hrs</t>
@@ -106,16 +106,16 @@
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>Debe poder mostrarme los ultimos 15 huespedes registrados despues de insertar el ultimo.</t>
+    <t>Debe poder mostrarme los últimos 15 huéspedes registrados después de insertar el último.</t>
   </si>
   <si>
-    <t>Se deben mostrar los huespedes en  orden del más reciente a mas antiguo y que se elimine el ultimo cliente al tener un nuevo ingreso (eliminar de la vista)</t>
+    <t>Se deben mostrar los huéspedes en  orden del más reciente a más antiguo y que se elimine el último cliente al tener un nuevo ingreso (eliminar de la vista)</t>
   </si>
   <si>
-    <t>Al tener un registro exitoso,  el nuevo cliente pasara a ser el primero en la vista y el ultimo sera removido de la vista.</t>
+    <t>Al tener un registro exitoso,  el nuevo cliente pasará a ser el primero en la vista y el último será removido de la vista.</t>
   </si>
   <si>
-    <t>Poder vizualizar los ultimos 15 huespedes registrados incluyendo el último registro.</t>
+    <t>Poder visualizar los últimos 15 huéspedes registrados incluyendo el último registro.</t>
   </si>
   <si>
     <t>9 hrs</t>
@@ -124,13 +124,13 @@
     <t>Blondys-002</t>
   </si>
   <si>
-    <t>Como un engardo de operaciones.</t>
+    <t>Como un encargado de operaciones.</t>
   </si>
   <si>
-    <t>Necesito porder hacer login para ingresar al sistema.</t>
+    <t>Necesito poder hacer login para ingresar al sistema.</t>
   </si>
   <si>
-    <t>Con la finalidad de  tener claridad de quien esta ingresando en sistema y dependiendo del usuario, tendra ciertos privilegios.</t>
+    <t>Con la finalidad de  tener claridad de quien está ingresando en sistema y dependiendo del usuario, tendrá ciertos privilegios.</t>
   </si>
   <si>
     <t>Debe tener una interfaz donde colocar mi usuario y contraseña.</t>
@@ -139,10 +139,10 @@
     <t>Para poder acceder al  sistema, debe aparecer un cuadro donde me permita hacer login, recuperar contraseña.</t>
   </si>
   <si>
-    <t>En caso de que todo este correcto permita el acceso a una pagina de bienvenida, caso contrario muestre un mensaje "Contraseña incorrecta" quedan x intentos, y que acepte.</t>
+    <t>En caso de que todo esté correcto permita el acceso a una página de bienvenida, caso contrario muestre un mensaje "Contraseña incorrecta" quedan x intentos, y que acepte.</t>
   </si>
   <si>
-    <t>Luego de errar en la contraseña, el sistema se bloquea y automaticamente llega un correo  al administrador para el correcto desbloqueo.</t>
+    <t>Luego de errar en la contraseña, el sistema se bloquea y automáticamente llega un correo  al administrador para el correcto desbloqueo.</t>
   </si>
   <si>
     <t>24 hrs</t>
@@ -151,10 +151,10 @@
     <t>Debe permitirme recuperar contraseña en caso de olvidarse.</t>
   </si>
   <si>
-    <t>En caso de solictar recuperación de contraseña, que solicite el correo electronico vinculado.</t>
+    <t>En caso de solicitar recuperación de contraseña, que solicite el correo electrónico vinculado.</t>
   </si>
   <si>
-    <t>En caso de que la contraseña sea incorrecta por más de 3 veces, se bloquea el sistema y se envia un mensaje al correo del administrador notificando que hubo un instruso y dejando un link para desbloquear el sistema.</t>
+    <t>En caso de que la contraseña sea incorrecta por más de 3 veces, se bloquea el sistema y se envía un mensaje al correo del administrador notificando que hubo un intruso y dejando un link para desbloquear el sistema.</t>
   </si>
   <si>
     <t>La llegada de la recuperación de contraseña en su correo, la notificación que hubo intentos de ingresos no solicitados y que notifique la hora y fecha de los dos eventos.</t>
@@ -169,27 +169,27 @@
     <t>Como un encargado de marketing.</t>
   </si>
   <si>
-    <t>Necesito poder enviarle una encuesta al cliente una vez terminada su estadia en local.</t>
+    <t>Necesito poder enviarle una encuesta al cliente una vez terminada su estadía en local.</t>
   </si>
   <si>
-    <t>Con la finalidad de poder visualizar la satisfaccion del cliente y obtener un feedback.</t>
+    <t>Con la finalidad de poder visualizar la satisfacción del cliente y obtener un feedback.</t>
   </si>
   <si>
-    <t>Se debe mandar un correo de manera automatica, apenas el cliente haga check-out, donde el correo contiene un mensaje de despedida y un link que redirige a un formulario para saber la satisfacción del cliente.</t>
+    <t>Se debe mandar un correo de manera automática, apenas el cliente haga check-out, donde el correo contiene un mensaje de despedida y un link que redirige a un formulario para saber la satisfacción del cliente.</t>
   </si>
   <si>
-    <t xml:space="preserve">El  contiene preguntas para valorar la estadia del huesped , se le debe consultar como minimo estas preguntaslas siguientes preguntas:                                                                                                                                                                                           La experiencia 
+    <t xml:space="preserve">El  contiene preguntas para valorar la estadía del huésped , se le debe consultar como mínimo estas preguntas las siguientes preguntas:                                                                                                                                                                                           La experiencia 
 El trato dado 
-Protocolos de bioseguirdad
+Protocolos de bioseguridad
 Limpieza
 Estados de las instalaciones 
 Agregar un comentario (opcional).                                                                                                                                                                                                      </t>
   </si>
   <si>
-    <t>Cuando el huesped termine el formuralio contará llegara una confirmación al correo de la empresa.</t>
+    <t>Cuando el huésped termine el formulario contará llegará una confirmación al correo de la empresa.</t>
   </si>
   <si>
-    <t>Se almacenaran todas las encuentas de satisfacción en la nube y podra verse en tiempo real.</t>
+    <t>Se almacenarán todas las encuestas de satisfacción en la nube y podrá verse en tiempo real.</t>
   </si>
   <si>
     <t>Sprint 3</t>
@@ -198,40 +198,37 @@
     <t>El sistema debe poder emitir un reporte.</t>
   </si>
   <si>
-    <t xml:space="preserve">Debe de mostrar un resumen semanal de las encuestas hechas por los clientes, para saber su grado de satisfactición y los puntos a mejorar. </t>
+    <t xml:space="preserve">Debe de mostrar un resumen semanal de las encuestas hechas por los clientes, para saber su grado de satisfacción y los puntos a mejorar. </t>
   </si>
   <si>
-    <t>El formulario debe ser enviado al correo registrado y permitiendo que el huesped, haga el llenado correspondiente.</t>
+    <t>El formulario debe ser enviado al correo registrado y permitiendo que el huésped, haga el llenado correspondiente.</t>
   </si>
   <si>
-    <t>Para ofrecer un mejor servicio es necesario contar la retroalimentación brindanda por los clientes, por ello es necesario hacerles llegar la encuesta de satisfacción.</t>
+    <t>Para ofrecer un mejor servicio es necesario contar con la retroalimentación brindada por los clientes, por ello es necesario hacerles llegar la encuesta de satisfacción.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cada fin de semana el sistema emite un reporte, el cual será analizado por el encargado para corregir la puntuacion más baja que tuvieron, para no repetirlos en las proximas semanas. </t>
+    <t xml:space="preserve">Cada fin de semana el sistema emite un reporte, el cual será analizado por el encargado para corregir la puntuación más baja que tuvieron, para no repetirlos en las próximas semanas. </t>
   </si>
   <si>
-    <t>Tener claridad en la satisfación de los cliente con el servicio prestado.</t>
+    <t>Tener claridad en la satisfacción de los cliente con el servicio prestado.</t>
   </si>
   <si>
     <t>Blondys-004</t>
   </si>
   <si>
-    <t>Como un encargado de operaciones.</t>
-  </si>
-  <si>
     <t>Necesito que el sistema me proporcione información sobre mis productos.</t>
   </si>
   <si>
-    <t>Con la finalidad de  tener un mayor orden en los stocks de venta y poder hacer tributación mas trasparente.</t>
+    <t>Con la finalidad de  tener un mayor orden en los stocks de venta y poder hacer tributación más transparente.</t>
   </si>
   <si>
-    <t>Se debe poder consultar el stock de productos y ver cuantos me faltan.</t>
+    <t>Se debe poder consultar el stock de productos y ver cuántos me faltan.</t>
   </si>
   <si>
     <t>En el apartado de producto debe figurar la cantidad de productos que y los productos que son necesarios comprar.</t>
   </si>
   <si>
-    <t>Al consultar el stock del producto, debe mostrar el stock actual y el stock minimo que se debe de tener para no estar desabastecido.</t>
+    <t>Al consultar el stock del producto, debe mostrar el stock actual y el stock mínimo que se debe de tener para no estar desabastecido.</t>
   </si>
   <si>
     <t>Tener una mayor eficiencia y un ahorro del tiempo al momento de gestionar los productos adquiridos y verificar los necesario.</t>
@@ -240,25 +237,25 @@
     <t>Se debe poder tener un reporte, diario - semanal - mensual, de los consumos.</t>
   </si>
   <si>
-    <t>Cada semena el sistema se encargara de otorgar al administrador un reporteso sobre los consumos que se han hecho.</t>
+    <t>Cada semana el sistema se encargará de otorgar al administrador un reporte sobre los consumos que se han hecho.</t>
   </si>
   <si>
-    <t>Al emitir los reportes, se obervaria que productos se consumen más y cuales productos no tienen mucho consumo.</t>
+    <t>Al emitir los reportes, se observará que productos se consumen más y cuales productos no tienen mucho consumo.</t>
   </si>
   <si>
     <t>Estos reportes ayudan a llevar un control sobre que productos debemos de tener en mayor stock y cuales no, para no tener un sobre stock.</t>
   </si>
   <si>
-    <t>Se debe tener separado un inventario de productor internos productos externos.</t>
+    <t>Se debe tener separado un inventario de productos internos productos externos.</t>
   </si>
   <si>
-    <t>En el sistema tiene que haber un apartado unicamente para los productos que se consumen en la empresa y un apartado de los productos unicamente vendidos.</t>
+    <t>En el sistema tiene que haber un apartado únicamente para los productos que se consumen en la empresa y un apartado de los productos únicamente vendidos.</t>
   </si>
   <si>
-    <t>El sistema separa los producos que son de consumo interno y los productos que son de venta a los huespedes.</t>
+    <t>El sistema separa los productos que son de consumo interno y los productos que son de venta a los huéspedes.</t>
   </si>
   <si>
-    <t>Al tener los productos de consumo interno y de venta separados, tenemor un mayor orden en el proceso de compra para la reposision de stock.</t>
+    <t>Al tener los productos de consumo interno y de venta separados, tenemos un mayor orden en el proceso de compra para la reposición de stock.</t>
   </si>
   <si>
     <t>Blondys-005</t>
@@ -270,76 +267,76 @@
     <t>Con la finalidad de  saber cuanta capacidad de clientes puedo tener en el establecimiento respetando el aforo.</t>
   </si>
   <si>
-    <t>Debe mostrar cuantas habitaciones en tiempo real estan siendo ocupadas y por que huesped</t>
+    <t>Debe mostrar cuántas habitaciones en tiempo real están siendo ocupadas y por que huésped</t>
   </si>
   <si>
-    <t>En el apartado de habitaciones nos debe figurar las habitaciones que estan en uso, las ocupadas y las que necesitan mantenimiento.</t>
+    <t>En el apartado de habitaciones nos debe figurar las habitaciones que están en uso, las ocupadas y las que necesitan mantenimiento.</t>
   </si>
   <si>
-    <t>Cuando una habitación este ocupada debe figurar como transparente, en cambio, si esta libre debe figurar la imagen normal y si es necesario mantenimiento con un bordeado amarillo.</t>
+    <t>Cuando una habitación esté ocupada debe figurar como transparente, en cambio, si está libre debe figurar la imagen normal y si es necesario mantenimiento con un bordado amarillo.</t>
   </si>
   <si>
-    <t>Al tener las habitaciones vigiladas podran tener una mayor gestion del hotel.</t>
+    <t>Al tener las habitaciones vigiladas podrán tener una mayor gestión del hotel.</t>
   </si>
   <si>
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>Debo poder saber cuanto tiempo de estadia estuvo el huespedes y con cuantas personas.</t>
+    <t>Debo poder saber cuanto tiempo de estadía estuvo el huespedes y con cuántas personas.</t>
   </si>
   <si>
-    <t>Al momento de dar clic a una habitación, en el lado derecho de la interfaz nos saldra la información de quien y cuantos estan habitando.</t>
+    <t>Al momento de dar clic a una habitación, en el lado derecho de la interfaz nos saldrá la información de quien y cuántos están habitando.</t>
   </si>
   <si>
-    <t>Si es necesario saber la información de quien esta ocupando cierta habitación solamente hay que dar clic en la habitación correspondiente.</t>
+    <t>Si es necesario saber la información de quien está ocupando cierta habitación solamente hay que dar clic en la habitación correspondiente.</t>
   </si>
   <si>
-    <t>Nos permite tener una mayor gestión y control de los clientes dentro del hotel así mismo evitando confuciones.</t>
+    <t>Nos permite tener una mayor gestión y control de los clientes dentro del hotel así mismo evitando confusiones.</t>
   </si>
   <si>
-    <t>Debo poder saber cuando se retira el huesped y de que plataforma vino.</t>
+    <t>Debo poder saber cuando se retira el huésped y de que plataforma vino.</t>
   </si>
   <si>
-    <t>Al momento de dar clic a una habitación, en el lado derecho de la interfaz nos saldra la información de entrada y salida de cada habitación.</t>
+    <t>Al momento de dar clic a una habitación, en el lado derecho de la interfaz nos saldrá la información de entrada y salida de cada habitación.</t>
   </si>
   <si>
-    <t>Si es necesario saber la salida de una habitación hay que dar clic en la habitacion correspondiente y nos figurara toda la información.</t>
+    <t>Si es necesario saber la salida de una habitación hay que dar clic en la habitación correspondiente y nos figurara toda la información.</t>
   </si>
   <si>
-    <t>Nos permite tener una fecha exacta de la hora de salida de cada habitación, así podremos anticipar proximas habitaciones disponibles.</t>
+    <t>Nos permite tener una fecha exacta de la hora de salida de cada habitación, así podremos anticipar próximas habitaciones disponibles.</t>
   </si>
   <si>
     <t>Blondys-006</t>
   </si>
   <si>
-    <t>Necesito que al poder ingresar al sistema me permite ingresar al apartado especifico que necesito.</t>
+    <t>Necesito que al poder ingresar al sistema me permita ingresar al apartado específico que necesito.</t>
   </si>
   <si>
-    <t>Con la finalidad de  tener un menu que permita ir al moduio que requiero de manera facil y directa.</t>
+    <t>Con la finalidad de  tener un menú que permita ir al módulo que requiero de manera fácil y directa.</t>
   </si>
   <si>
-    <t>Debe permitirme mediante un recuadro, saber a que modulo puedo ingresar.</t>
+    <t>Debe permitirme mediante un recuadro, saber a que módulo puedo ingresar.</t>
   </si>
   <si>
-    <t>Al cumplir varias funciones el sistema , necesito saber mediante una interfaz amigable en que modulo me puedo apoyar para realizar mi gestión.</t>
+    <t>Al cumplir varias funciones el sistema , necesito saber mediante una interfaz amigable en que módulo me puedo apoyar para realizar mi gestión.</t>
   </si>
   <si>
-    <t>Al dar clic al recuadro nos debe de mostrar los modulos que puedo ingresar.</t>
+    <t>Al dar clic al recuadro nos debe de mostrar los módulos que puedo ingresar.</t>
   </si>
   <si>
-    <t>Nos permite saber que modulos estan disponibles así mismo evitamos confuciones.</t>
+    <t>Nos permite saber que módulos están disponibles así mismo evitamos confusiones.</t>
   </si>
   <si>
-    <t>Debe redirecionarme al modulo correspondiente sin fallos.</t>
+    <t>Debe redireccionarse al módulo correspondiente sin fallos.</t>
   </si>
   <si>
-    <t>Debe poder mandarme a los modulos que indique sin error alguno.</t>
+    <t>Debe poder mandarme a los módulos que indique sin error alguno.</t>
   </si>
   <si>
-    <t>Al dar clic en el recuadra correspondiente me direciones modulo correcto sin error.</t>
+    <t>Al dar clic en el recuadra correspondiente me direcciones módulo correcto sin error.</t>
   </si>
   <si>
-    <t xml:space="preserve">Al dar clic  en el recuadro redirecione de manera adecuada. </t>
+    <t xml:space="preserve">Al dar clic  en el recuadro redireccione de manera adecuada. </t>
   </si>
   <si>
     <t>Blondys-007</t>
@@ -351,7 +348,7 @@
     <t>Para poder tener un control sobre que tipo de acciones que pueden hacer o no en el sistema.</t>
   </si>
   <si>
-    <t>Los usuarios creados  deben poder cumplir unicamente con los roles  asignados.</t>
+    <t>Los usuarios creados  deben poder cumplir únicamente con los roles  asignados.</t>
   </si>
   <si>
     <t>Por temas de crecimiento se planea contratar un personal solo para atender y debe contar con un usuario.</t>
@@ -375,16 +372,16 @@
     <t>Como un usuario final.</t>
   </si>
   <si>
-    <t>Necesito acceder al sistema via web.</t>
+    <t>Necesito acceder al sistema vía web.</t>
   </si>
   <si>
-    <t>Se me resulta mas facil acceder al sistema por el navegador que teniendo una aplicación de escritorio.</t>
+    <t>Se me resulta más fácil acceder al sistema por el navegador que teniendo una aplicación de escritorio.</t>
   </si>
   <si>
     <t>El sistema debe ser accesible por el navegador solo por la red de la empresa.</t>
   </si>
   <si>
-    <t>Es importante que tengamos acceso por navegadoer puesto que resulta más sencillo y portable.</t>
+    <t>Es importante que tengamos acceso por navegador puesto que resulta más sencillo y portable.</t>
   </si>
   <si>
     <r>
@@ -414,7 +411,7 @@
     </r>
   </si>
   <si>
-    <t>poder acceder solo desde la lan de la empresa de manera rapida.</t>
+    <t>poder acceder solo desde la lan de la empresa de manera rápida.</t>
   </si>
   <si>
     <t>6 hrs</t>
@@ -462,7 +459,7 @@
     <t>¿Cuánta influencia tienen sobre el proyecto? (Low, Medium, High)</t>
   </si>
   <si>
-    <t>Mariella Pilar Lamonja Velasquez</t>
+    <t>Mariella Lamonja Velasquez</t>
   </si>
   <si>
     <t>Gerente general</t>
@@ -486,7 +483,7 @@
     <t>Mediante entrevistas</t>
   </si>
   <si>
-    <t xml:space="preserve">Abel Davila </t>
+    <t>Abel Davila Laguna</t>
   </si>
   <si>
     <t>Encargado de marketing</t>
@@ -1158,7 +1155,7 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1230,14 +1227,8 @@
     <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="2" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1251,13 +1242,16 @@
     </xf>
     <xf borderId="33" fillId="9" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="34" fillId="9" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="33" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="34" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1364,6 +1358,9 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="52" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -1802,7 +1799,7 @@
       <c r="G6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="24" t="s">
@@ -2150,16 +2147,16 @@
       <c r="C16" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="61">
         <v>1.0</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="25" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="25" t="s">
@@ -2168,14 +2165,14 @@
       <c r="I16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="62">
         <v>3.0</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="65"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="33"/>
       <c r="O16" s="28" t="s">
         <v>56</v>
@@ -2201,29 +2198,29 @@
       <c r="D17" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="64" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="24">
         <v>2.0</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="64" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K17" s="65">
         <v>2.0</v>
       </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="65"/>
+      <c r="M17" s="63"/>
       <c r="N17" s="33"/>
       <c r="O17" s="28" t="s">
         <v>56</v>
@@ -2253,8 +2250,8 @@
       <c r="J18" s="56"/>
       <c r="K18" s="45"/>
       <c r="L18" s="18"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="69"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
       <c r="O18" s="48"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="1"/>
@@ -2274,35 +2271,35 @@
         <v>63</v>
       </c>
       <c r="C19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="E19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="F19" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="H19" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="I19" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="J19" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="64">
+      <c r="K19" s="62">
         <v>3.0</v>
       </c>
       <c r="L19" s="10"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="71"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="70"/>
       <c r="O19" s="28" t="s">
         <v>56</v>
       </c>
@@ -2324,27 +2321,27 @@
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="62">
+      <c r="F20" s="61">
         <v>2.0</v>
       </c>
       <c r="G20" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="I20" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="J20" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="72">
+      <c r="K20" s="71">
         <v>3.0</v>
       </c>
       <c r="L20" s="10"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="71"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="70"/>
       <c r="O20" s="28" t="s">
         <v>56</v>
       </c>
@@ -2366,27 +2363,27 @@
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="62">
+      <c r="F21" s="61">
         <v>3.0</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="73" t="s">
+      <c r="I21" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="J21" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="72">
+      <c r="K21" s="71">
         <v>3.0</v>
       </c>
       <c r="L21" s="10"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="71"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="70"/>
       <c r="O21" s="28" t="s">
         <v>56</v>
       </c>
@@ -2412,14 +2409,14 @@
       <c r="G22" s="56"/>
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="74"/>
+      <c r="M22" s="73"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="75"/>
+      <c r="O22" s="74"/>
       <c r="P22" s="10"/>
-      <c r="Q22" s="76"/>
+      <c r="Q22" s="75"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2433,43 +2430,43 @@
     <row r="23" ht="78.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="E23" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="F23" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="24" t="s">
+      <c r="H23" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="I23" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="J23" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="64">
+      <c r="K23" s="62">
         <v>3.0</v>
       </c>
       <c r="L23" s="10"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="77" t="s">
-        <v>86</v>
+      <c r="M23" s="69"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="76" t="s">
+        <v>85</v>
       </c>
       <c r="P23" s="10"/>
-      <c r="Q23" s="76"/>
+      <c r="Q23" s="75"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2490,25 +2487,25 @@
         <v>2.0</v>
       </c>
       <c r="G24" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="I24" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="J24" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="78">
+      <c r="K24" s="77">
         <v>2.0</v>
       </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="71"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="70"/>
       <c r="O24" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P24" s="29"/>
       <c r="Q24" s="1"/>
@@ -2532,25 +2529,25 @@
         <v>3.0</v>
       </c>
       <c r="G25" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="I25" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="J25" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="J25" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="K25" s="78">
+      <c r="K25" s="77">
         <v>2.0</v>
       </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="80"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="79"/>
       <c r="O25" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P25" s="29"/>
       <c r="Q25" s="1"/>
@@ -2575,11 +2572,11 @@
       <c r="H26" s="56"/>
       <c r="I26" s="56"/>
       <c r="J26" s="56"/>
-      <c r="K26" s="81"/>
+      <c r="K26" s="80"/>
       <c r="L26" s="10"/>
       <c r="M26" s="58"/>
       <c r="N26" s="59"/>
-      <c r="O26" s="82"/>
+      <c r="O26" s="81"/>
       <c r="P26" s="35"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2595,43 +2592,43 @@
     <row r="27" ht="65.25" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="23" t="s">
+      <c r="E27" s="23" t="s">
         <v>96</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>97</v>
       </c>
       <c r="F27" s="24">
         <v>1.0</v>
       </c>
       <c r="G27" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="I27" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="J27" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="J27" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="K27" s="83">
+      <c r="K27" s="82">
         <v>4.0</v>
       </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="77" t="s">
-        <v>86</v>
+      <c r="M27" s="83"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="76" t="s">
+        <v>85</v>
       </c>
       <c r="P27" s="10"/>
-      <c r="Q27" s="76"/>
+      <c r="Q27" s="75"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -2652,25 +2649,25 @@
         <v>2.0</v>
       </c>
       <c r="G28" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="I28" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="J28" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="J28" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="K28" s="83">
+      <c r="K28" s="82">
         <v>4.0</v>
       </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="77" t="s">
-        <v>86</v>
+      <c r="M28" s="84"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="76" t="s">
+        <v>85</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="1"/>
@@ -2686,21 +2683,21 @@
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="89"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="88"/>
       <c r="L29" s="18"/>
       <c r="M29" s="58"/>
       <c r="N29" s="59"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="90"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="89"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2714,56 +2711,56 @@
     </row>
     <row r="30" ht="15.0" customHeight="1">
       <c r="B30" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="92" t="s">
+      <c r="E30" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="92">
+      <c r="F30" s="91">
         <v>1.0</v>
       </c>
       <c r="G30" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="I30" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="J30" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>112</v>
       </c>
       <c r="K30" s="50">
         <v>2.0</v>
       </c>
       <c r="L30" s="33"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="95" t="s">
-        <v>113</v>
+      <c r="M30" s="92"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="94" t="s">
+        <v>112</v>
       </c>
       <c r="P30" s="33"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
       <c r="B31" s="30"/>
-      <c r="C31" s="97"/>
+      <c r="C31" s="96"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -2773,24 +2770,24 @@
       <c r="J31" s="30"/>
       <c r="K31" s="37"/>
       <c r="L31" s="35"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="98"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="97"/>
       <c r="O31" s="41"/>
       <c r="P31" s="29"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
       <c r="B32" s="30"/>
-      <c r="C32" s="97"/>
+      <c r="C32" s="96"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -2800,26 +2797,26 @@
       <c r="J32" s="30"/>
       <c r="K32" s="37"/>
       <c r="L32" s="35"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="95" t="s">
-        <v>114</v>
+      <c r="M32" s="95"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="94" t="s">
+        <v>113</v>
       </c>
       <c r="P32" s="33"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
       <c r="B33" s="39"/>
-      <c r="C33" s="99"/>
+      <c r="C33" s="98"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
@@ -2829,20 +2826,20 @@
       <c r="J33" s="39"/>
       <c r="K33" s="41"/>
       <c r="L33" s="29"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="101"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="100"/>
       <c r="O33" s="41"/>
       <c r="P33" s="29"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="1"/>
@@ -2875,41 +2872,41 @@
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="91" t="s">
+      <c r="D35" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="E35" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="92">
+      <c r="F35" s="91">
         <v>1.0</v>
       </c>
       <c r="G35" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="I35" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="I35" s="102" t="s">
+      <c r="J35" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>122</v>
       </c>
       <c r="K35" s="50">
         <v>2.0</v>
       </c>
       <c r="L35" s="33"/>
-      <c r="M35" s="103" t="s">
-        <v>123</v>
+      <c r="M35" s="102" t="s">
+        <v>122</v>
       </c>
       <c r="N35" s="33"/>
-      <c r="O35" s="95" t="s">
+      <c r="O35" s="94" t="s">
         <v>28</v>
       </c>
       <c r="P35" s="33"/>
@@ -2927,7 +2924,7 @@
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="97"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -2955,7 +2952,7 @@
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="97"/>
+      <c r="C37" s="96"/>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
@@ -2983,7 +2980,7 @@
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="39"/>
-      <c r="C38" s="99"/>
+      <c r="C38" s="98"/>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
       <c r="F38" s="39"/>
@@ -3037,25 +3034,25 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="104"/>
-      <c r="B40" s="105" t="s">
-        <v>124</v>
+      <c r="A40" s="103"/>
+      <c r="B40" s="104" t="s">
+        <v>123</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="106"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
       <c r="P40" s="33"/>
-      <c r="Q40" s="76"/>
+      <c r="Q40" s="75"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3067,10 +3064,10 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="104"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="37"/>
       <c r="P41" s="35"/>
-      <c r="Q41" s="76"/>
+      <c r="Q41" s="75"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3082,10 +3079,10 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="104"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="37"/>
       <c r="P42" s="35"/>
-      <c r="Q42" s="76"/>
+      <c r="Q42" s="75"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -3097,23 +3094,23 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="104"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="41"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="107"/>
-      <c r="O43" s="107"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="106"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="106"/>
       <c r="P43" s="29"/>
-      <c r="Q43" s="76"/>
+      <c r="Q43" s="75"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3126,21 +3123,21 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="108"/>
-      <c r="O44" s="108"/>
-      <c r="P44" s="108"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="107"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -3183,8 +3180,8 @@
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="110"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="109"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -3211,8 +3208,8 @@
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="110"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="109"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -3240,7 +3237,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="110"/>
+      <c r="D48" s="109"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -3268,7 +3265,7 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="110"/>
+      <c r="D49" s="109"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -3405,15 +3402,15 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="110"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3433,15 +3430,15 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="111"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="111"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3461,15 +3458,15 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="111"/>
-      <c r="J56" s="111"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3489,15 +3486,15 @@
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="97"/>
-      <c r="C57" s="97"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="111"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="111"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3517,15 +3514,15 @@
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="111"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="112"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3545,15 +3542,15 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="111"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="110"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3573,15 +3570,15 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="111"/>
-      <c r="H60" s="111"/>
-      <c r="I60" s="111"/>
-      <c r="J60" s="111"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="110"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3601,15 +3598,15 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="111"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="110"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="110"/>
+      <c r="J61" s="110"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3629,15 +3626,15 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="111"/>
-      <c r="J62" s="111"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="110"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3657,15 +3654,15 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="113"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="111"/>
-      <c r="I63" s="111"/>
-      <c r="J63" s="111"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="110"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="110"/>
+      <c r="J63" s="110"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3685,15 +3682,15 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="112"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="111"/>
-      <c r="F64" s="113"/>
-      <c r="G64" s="111"/>
-      <c r="H64" s="111"/>
-      <c r="I64" s="111"/>
-      <c r="J64" s="111"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="110"/>
+      <c r="I64" s="110"/>
+      <c r="J64" s="110"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3713,15 +3710,15 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="111"/>
-      <c r="J65" s="111"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="110"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="110"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3741,15 +3738,15 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="111"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="111"/>
-      <c r="J66" s="111"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="110"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="110"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3769,15 +3766,15 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="111"/>
-      <c r="I67" s="111"/>
-      <c r="J67" s="111"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="110"/>
+      <c r="H67" s="110"/>
+      <c r="I67" s="110"/>
+      <c r="J67" s="110"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3797,15 +3794,15 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="115"/>
-      <c r="D68" s="115"/>
-      <c r="E68" s="115"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="112"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="110"/>
+      <c r="I68" s="110"/>
+      <c r="J68" s="110"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -3825,15 +3822,15 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="111"/>
-      <c r="D69" s="111"/>
-      <c r="E69" s="111"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="111"/>
-      <c r="I69" s="111"/>
-      <c r="J69" s="111"/>
+      <c r="B69" s="110"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="112"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
+      <c r="I69" s="110"/>
+      <c r="J69" s="110"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -3853,15 +3850,15 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="114"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="111"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="111"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="113"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="110"/>
+      <c r="H70" s="110"/>
+      <c r="I70" s="110"/>
+      <c r="J70" s="110"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -3881,15 +3878,15 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="97"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="111"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="111"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="112"/>
+      <c r="G71" s="110"/>
+      <c r="H71" s="110"/>
+      <c r="I71" s="110"/>
+      <c r="J71" s="110"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -3909,15 +3906,15 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="97"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="113"/>
-      <c r="G72" s="111"/>
-      <c r="H72" s="111"/>
-      <c r="I72" s="111"/>
-      <c r="J72" s="111"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="96"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="112"/>
+      <c r="G72" s="110"/>
+      <c r="H72" s="110"/>
+      <c r="I72" s="110"/>
+      <c r="J72" s="110"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -3937,15 +3934,15 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="115"/>
-      <c r="C73" s="115"/>
-      <c r="D73" s="115"/>
-      <c r="E73" s="115"/>
-      <c r="F73" s="113"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="111"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="110"/>
+      <c r="I73" s="110"/>
+      <c r="J73" s="110"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -3965,15 +3962,15 @@
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="111"/>
-      <c r="C74" s="111"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="113"/>
-      <c r="G74" s="111"/>
-      <c r="H74" s="111"/>
-      <c r="I74" s="111"/>
-      <c r="J74" s="111"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="110"/>
+      <c r="H74" s="110"/>
+      <c r="I74" s="110"/>
+      <c r="J74" s="110"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -3993,15 +3990,15 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="114"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="114"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="113"/>
-      <c r="G75" s="111"/>
-      <c r="H75" s="111"/>
-      <c r="I75" s="111"/>
-      <c r="J75" s="111"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="113"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="112"/>
+      <c r="G75" s="110"/>
+      <c r="H75" s="110"/>
+      <c r="I75" s="110"/>
+      <c r="J75" s="110"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -4021,15 +4018,15 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="97"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="113"/>
-      <c r="G76" s="111"/>
-      <c r="H76" s="111"/>
-      <c r="I76" s="111"/>
-      <c r="J76" s="111"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="112"/>
+      <c r="G76" s="110"/>
+      <c r="H76" s="110"/>
+      <c r="I76" s="110"/>
+      <c r="J76" s="110"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -4049,15 +4046,15 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="97"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="113"/>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="112"/>
+      <c r="G77" s="110"/>
+      <c r="H77" s="110"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="110"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -4077,15 +4074,15 @@
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="115"/>
-      <c r="F78" s="113"/>
-      <c r="G78" s="111"/>
-      <c r="H78" s="111"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="111"/>
+      <c r="B78" s="114"/>
+      <c r="C78" s="114"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="114"/>
+      <c r="F78" s="112"/>
+      <c r="G78" s="110"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="110"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -4105,15 +4102,15 @@
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="111"/>
-      <c r="C79" s="111"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="111"/>
-      <c r="F79" s="113"/>
-      <c r="G79" s="111"/>
-      <c r="H79" s="111"/>
-      <c r="I79" s="111"/>
-      <c r="J79" s="111"/>
+      <c r="B79" s="110"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="110"/>
+      <c r="F79" s="112"/>
+      <c r="G79" s="110"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="110"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -29753,123 +29750,83 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="K13:L14"/>
     <mergeCell ref="M13:N14"/>
-    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="O13:P14"/>
     <mergeCell ref="K15:L15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L38"/>
+    <mergeCell ref="M35:N38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="O32:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P38"/>
+    <mergeCell ref="O39:P39"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="O13:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="O26:P26"/>
+    <mergeCell ref="K27:L27"/>
     <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O35:P38"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O28:P28"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H7:H9"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J7:J9"/>
     <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="O28:P28"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:P4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P9"/>
+    <mergeCell ref="K7:L9"/>
     <mergeCell ref="M7:N9"/>
-    <mergeCell ref="O7:P9"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="B40:P43"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:L33"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="O32:P33"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="K35:L38"/>
-    <mergeCell ref="M35:N38"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="C55:C58"/>
     <mergeCell ref="D55:D58"/>
@@ -29890,6 +29847,46 @@
     <mergeCell ref="E65:E68"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="B40:P43"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="I35"/>
@@ -29926,32 +29923,32 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="D1" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="E1" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="F1" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="G1" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="H1" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="I1" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="J1" s="119" t="s">
         <v>132</v>
-      </c>
-      <c r="J1" s="120" t="s">
-        <v>133</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -29972,23 +29969,23 @@
     </row>
     <row r="2" ht="78.0" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="122" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="121" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="E2" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="F2" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="124"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="123"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -30008,32 +30005,32 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="124" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="D3" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="E3" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="F3" s="125" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="125" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="125" t="s">
+      <c r="H3" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="125" t="s">
+      <c r="I3" s="125" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="125" t="s">
+      <c r="J3" s="125" t="s">
         <v>144</v>
-      </c>
-      <c r="J3" s="125" t="s">
-        <v>145</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -30054,32 +30051,32 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="124" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="125" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="D4" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="E4" s="125" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="125" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="125" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="125" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="125" t="s">
+      <c r="H4" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="125" t="s">
+      <c r="I4" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="125" t="s">
+      <c r="J4" s="125" t="s">
         <v>151</v>
-      </c>
-      <c r="J4" s="125" t="s">
-        <v>152</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -30101,29 +30098,29 @@
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="125"/>
       <c r="E5" s="125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="125" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="I5" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="125" t="s">
+      <c r="J5" s="125" t="s">
         <v>157</v>
-      </c>
-      <c r="J5" s="125" t="s">
-        <v>158</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
